--- a/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC2.4_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC2.4_TC1.xlsx
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.1313600924709181</v>
+        <v>0.1204280720049056</v>
       </c>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="7" t="inlineStr">
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2729993572537679</v>
+        <v>0.2610681690385872</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2729993572537679, 'ngram_match_score': 0.13136009247091812, 'weighted_ngram_match_score': 0.1452263094740897, 'syntax_match_score': 0.53515625, 'dataflow_match_score': 0.2802547770700637}</t>
+          <t>{'codebleu': 0.26106816903858715, 'ngram_match_score': 0.12042807200490559, 'weighted_ngram_match_score': 0.13391128408574884, 'syntax_match_score': 0.53515625, 'dataflow_match_score': 0.25477707006369427}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.8600487581918407</v>
+        <v>0.7633919510723942</v>
       </c>
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="inlineStr">
